--- a/docs/odh/obf-OnBehalfOf-extension.xlsx
+++ b/docs/odh/obf-OnBehalfOf-extension.xlsx
@@ -222,7 +222,7 @@
     <t>Extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|RelatedPerson|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
